--- a/model_structs.xlsx
+++ b/model_structs.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Model Structure</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>Aziz</t>
+  </si>
+  <si>
+    <t>Train Loss</t>
+  </si>
+  <si>
+    <t>Test Loss</t>
   </si>
 </sst>
 </file>
@@ -424,22 +430,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F3"/>
+  <dimension ref="B1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="47.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.28515625" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
@@ -455,8 +461,14 @@
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="2:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="180" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
@@ -472,8 +484,14 @@
       <c r="F2" s="3">
         <v>40</v>
       </c>
+      <c r="G2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="2:6" ht="210" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" ht="199.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
@@ -485,6 +503,8 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:F3"/>

--- a/model_structs.xlsx
+++ b/model_structs.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Model Structure</t>
   </si>
@@ -34,6 +34,18 @@
   </si>
   <si>
     <t>Epochs</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Aziz</t>
+  </si>
+  <si>
+    <t>Train Loss</t>
+  </si>
+  <si>
+    <t>Test Loss</t>
   </si>
   <si>
     <t>i = Input(shape = (200,200,3))
@@ -42,46 +54,49 @@
 x = Conv2D(32,(3,3),activation='relu')(x)
 x = MaxPooling2D((2,2))(x)
 x = Conv2D(64,(3,3),activation='relu')(x)
+x = MaxPooling2D((2,2))(x)
+x = Conv2D(128,(3,3),activation='relu')(x)
+x = MaxPooling2D((2,2))(x)
+x = Flatten()(x)
+x = Dense(512,activation='relu',kernel_regularizer = l2())(x)
+x = Dropout(0.2)(x)
+x = Dense(23,activation='softmax')(x)</t>
+  </si>
+  <si>
+    <t>i = Input(shape = (200,200,3))
+x = Conv2D(16,(3,3),activation='relu')(i)
+x = MaxPooling2D((2,2))(x)
+x = Conv2D(32,(3,3),activation='relu')(x)
+x = MaxPooling2D((2,2))(x)
+x = Conv2D(32,(3,3),activation='relu')(x)
+x = MaxPooling2D((2,2))(x)
+x = Conv2D(64,(3,3),activation='relu')(x)
+x = MaxPooling2D((2,2))(x)
+x = Flatten()(x)
+x = Dense(256,activation='relu',kernel_regularizer = l2())(x)
+x = Dense(23,activation='softmax')(x)</t>
+  </si>
+  <si>
+    <t>i = Input(shape = (200,200,3))
+x = Conv2D(16,(3,3),activation='relu')(i)
+x = MaxPooling2D((2,2))(x)
+x = Conv2D(32,(3,3),activation='relu')(x)
+x = MaxPooling2D((2,2))(x)
+x = Conv2D(64,(3,3),activation='relu')(x)
+x = MaxPooling2D((2,2))(x)
 x = Conv2D(128,(3,3),activation='relu')(x)
 x = MaxPooling2D((2,2))(x)
 x = Flatten()(x)
 x = Dense(512,activation='relu')(x)
 x = Dropout(0.5)(x)
 x = Dense(23,activation='softmax')(x)</t>
-  </si>
-  <si>
-    <t>i = Input(shape = (200,200,3))
-x = Conv2D(16,(3,3),activation='relu')(i)
-x = MaxPooling2D((2,2))(x)
-x = Conv2D(32,(3,3),activation='relu')(x)
-x = MaxPooling2D((2,2))(x)
-x = Conv2D(64,(3,3),activation='relu')(x)
-x = MaxPooling2D((2,2))(x)
-x = Conv2D(128,(3,3),activation='relu')(x)
-x = MaxPooling2D((2,2))(x)
-x = Flatten()(x)
-x = Dense(256,activation='relu',kernel_regularizer = l1())(x)
-x = Dropout(0.2)(x)
-x = Dense(23,activation='softmax')(x)</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>Aziz</t>
-  </si>
-  <si>
-    <t>Train Loss</t>
-  </si>
-  <si>
-    <t>Test Loss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +107,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -134,11 +156,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -149,10 +172,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -430,11 +457,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H3"/>
+  <dimension ref="B1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,7 +474,7 @@
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -462,27 +489,27 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="195" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3">
         <v>30</v>
       </c>
-      <c r="E2" s="3">
-        <v>90</v>
-      </c>
-      <c r="F2" s="3">
-        <v>40</v>
+      <c r="E2" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.4</v>
       </c>
       <c r="G2" s="3">
         <v>0.5</v>
@@ -493,18 +520,33 @@
     </row>
     <row r="3" spans="2:8" ht="199.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3">
         <v>30</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="2:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:F3"/>

--- a/model_structs.xlsx
+++ b/model_structs.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27842A7-46DF-44DC-83FD-565C34CF0C0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Model Structure</t>
   </si>
@@ -91,11 +92,37 @@
 x = Dropout(0.5)(x)
 x = Dense(23,activation='softmax')(x)</t>
   </si>
+  <si>
+    <t>Mahenoor</t>
+  </si>
+  <si>
+    <t>model=Sequential()
+model.add(Conv2D(64,(2,2),input_shape=(28,28,3),activation='relu'))
+model.add(MaxPooling2D(pool_size=(2, 2)))
+model.add(BatchNormalization())
+model.add(Conv2D(512,(2,2),input_shape=(28,28,3),activation='relu'))
+model.add(MaxPooling2D(pool_size=(2, 2)))
+model.add(BatchNormalization())
+model.add(Dropout(0.3))
+model.add(Conv2D(1024,(2,2),input_shape=(28,28,3),activation='relu'))
+model.add(MaxPooling2D(pool_size=(2, 2)))
+model.add(BatchNormalization())
+model.add(Dropout(0.3))
+model.add(Conv2D(1024,(1,1),input_shape=(28,28,3),activation='relu'))
+model.add(MaxPooling2D(pool_size=(1, 1)))
+model.add(BatchNormalization())
+model.add(Dropout(0.3))
+model.add(Flatten())
+model.add(Dense(256,activation='relu'))
+model.add(Dropout(0.5))
+model.add(Dense(7,activation='softmax'))
+model.compile(optimizer='adam',loss='categorical_crossentropy',metrics=[accuracy])</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -132,7 +159,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -155,13 +182,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -175,6 +213,22 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -456,19 +510,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="54.28515625" customWidth="1"/>
+    <col min="3" max="3" width="73.5703125" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -495,27 +549,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="195" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3">
+    <row r="2" spans="2:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5">
         <v>30</v>
       </c>
-      <c r="E2" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0.4</v>
+      <c r="E2" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0.89</v>
       </c>
       <c r="G2" s="3">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="H2" s="3">
-        <v>3</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="199.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -523,22 +577,26 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3">
         <v>30</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="E3" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.4</v>
+      </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="2:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="195" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3">
         <v>30</v>
@@ -548,8 +606,31 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
+    <row r="5" spans="2:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6">
+        <v>30</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5">
+        <v>0.33</v>
+      </c>
+      <c r="H5">
+        <v>0.79</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:F3"/>
+  <autoFilter ref="B1:F3" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F5">
+      <sortCondition descending="1" ref="E1:E3"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/model_structs.xlsx
+++ b/model_structs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27842A7-46DF-44DC-83FD-565C34CF0C0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C863B6D7-2CBC-4B37-8E75-EDE752FB23EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$F$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$E$3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Model Structure</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>Epochs</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>Aziz</t>
   </si>
   <si>
     <t>Train Loss</t>
@@ -91,9 +85,6 @@
 x = Dense(512,activation='relu')(x)
 x = Dropout(0.5)(x)
 x = Dense(23,activation='softmax')(x)</t>
-  </si>
-  <si>
-    <t>Mahenoor</t>
   </si>
   <si>
     <t>model=Sequential()
@@ -199,7 +190,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -229,6 +220,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -511,124 +503,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H5"/>
+  <dimension ref="B1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="73.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5">
+        <v>30</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.89</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="199.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3">
+        <v>30</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="2:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="C4" s="3">
+        <v>30</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="2:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="2:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="C5" s="6">
         <v>30</v>
       </c>
-      <c r="E2" s="10">
-        <v>0.95</v>
-      </c>
-      <c r="F2" s="10">
-        <v>0.89</v>
-      </c>
-      <c r="G2" s="3">
+      <c r="D5" s="9">
+        <v>0.73</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5">
         <v>0.33</v>
       </c>
-      <c r="H2" s="3">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="199.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3">
-        <v>30</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="2:8" ht="195" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3">
-        <v>30</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="2:8" ht="180" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="6">
-        <v>30</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
       <c r="G5">
-        <v>0.33</v>
-      </c>
-      <c r="H5">
         <v>0.79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:F3" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F5">
-      <sortCondition descending="1" ref="E1:E3"/>
+  <autoFilter ref="B1:E3" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E5">
+      <sortCondition descending="1" ref="D1:D3"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
